--- a/data/trans_orig/POLIPATOLOGIA_2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA_2-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>130825</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>112087</v>
+        <v>112781</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>149362</v>
+        <v>151689</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1885051286593731</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.161505409220517</v>
+        <v>0.1625053167724882</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.215214827749751</v>
+        <v>0.2185677441890332</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>208</v>
@@ -765,19 +765,19 @@
         <v>206231</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>180464</v>
+        <v>183028</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>231138</v>
+        <v>229238</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2996020999802419</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2621687252629242</v>
+        <v>0.2658932054547756</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3357847918179641</v>
+        <v>0.333025283608997</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>340</v>
@@ -786,19 +786,19 @@
         <v>337056</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>306625</v>
+        <v>305355</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>371210</v>
+        <v>367964</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2438261304201531</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2218124255859084</v>
+        <v>0.2208936050438414</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2685328259805099</v>
+        <v>0.266185071969447</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>563187</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>544650</v>
+        <v>542323</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>581925</v>
+        <v>581231</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8114948713406268</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7847851722502497</v>
+        <v>0.7814322558109668</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8384945907794833</v>
+        <v>0.8374946832275117</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>488</v>
@@ -836,19 +836,19 @@
         <v>482120</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>457213</v>
+        <v>459113</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>507887</v>
+        <v>505323</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7003979000197581</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6642152081820358</v>
+        <v>0.666974716391003</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7378312747370758</v>
+        <v>0.7341067945452244</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1039</v>
@@ -857,19 +857,19 @@
         <v>1045307</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1011153</v>
+        <v>1014399</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1075738</v>
+        <v>1077008</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7561738695798469</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7314671740194897</v>
+        <v>0.733814928030553</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7781875744140914</v>
+        <v>0.7791063949561587</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>192065</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>166731</v>
+        <v>168706</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>217540</v>
+        <v>219954</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1996933443500005</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1733533429501468</v>
+        <v>0.175406526437119</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2261805375228023</v>
+        <v>0.2286902565079887</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>303</v>
@@ -982,19 +982,19 @@
         <v>328881</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>300785</v>
+        <v>297992</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>360768</v>
+        <v>358321</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3396153121635865</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3106023103411955</v>
+        <v>0.3077179788968922</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.372543335327872</v>
+        <v>0.3700160023169798</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>487</v>
@@ -1003,19 +1003,19 @@
         <v>520946</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>485026</v>
+        <v>484459</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>565086</v>
+        <v>564498</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2698932973396341</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2512836195664576</v>
+        <v>0.2509900251037458</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2927616424502683</v>
+        <v>0.2924569354333212</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>769735</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>744260</v>
+        <v>741846</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>795069</v>
+        <v>793094</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8003066556499995</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7738194624771977</v>
+        <v>0.771309743492011</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8266466570498531</v>
+        <v>0.8245934735628802</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>605</v>
@@ -1053,19 +1053,19 @@
         <v>639512</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>607625</v>
+        <v>610072</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>667608</v>
+        <v>670401</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6603846878364135</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.627456664672128</v>
+        <v>0.6299839976830202</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6893976896588045</v>
+        <v>0.6922820211031078</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1317</v>
@@ -1074,19 +1074,19 @@
         <v>1409247</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1365107</v>
+        <v>1365695</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1445167</v>
+        <v>1445734</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7301067026603659</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7072383575497319</v>
+        <v>0.7075430645666787</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7487163804335424</v>
+        <v>0.7490099748962542</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>135141</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>115565</v>
+        <v>115232</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>156928</v>
+        <v>156219</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1991729390837288</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1703213291719133</v>
+        <v>0.1698306959277124</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.231284204969104</v>
+        <v>0.2302382195856323</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>261</v>
@@ -1199,19 +1199,19 @@
         <v>253758</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>230930</v>
+        <v>229576</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>281545</v>
+        <v>279318</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3710770223581602</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3376960358823158</v>
+        <v>0.3357147585164075</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4117116632913841</v>
+        <v>0.4084545242197816</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>396</v>
@@ -1220,19 +1220,19 @@
         <v>388898</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>357406</v>
+        <v>354447</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>422371</v>
+        <v>421320</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.285461389660525</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2623449553002145</v>
+        <v>0.2601734723099761</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3100310427702877</v>
+        <v>0.3092600526264097</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>543368</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>521581</v>
+        <v>522290</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>562944</v>
+        <v>563277</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8008270609162712</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7687157950308959</v>
+        <v>0.7697617804143677</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8296786708280867</v>
+        <v>0.8301693040722876</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>435</v>
@@ -1270,19 +1270,19 @@
         <v>430083</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>402296</v>
+        <v>404523</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>452911</v>
+        <v>454265</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6289229776418398</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5882883367086157</v>
+        <v>0.5915454757802182</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6623039641176841</v>
+        <v>0.6642852414835925</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>941</v>
@@ -1291,19 +1291,19 @@
         <v>973452</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>939979</v>
+        <v>941030</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1004944</v>
+        <v>1007903</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.714538610339475</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6899689572297123</v>
+        <v>0.6907399473735902</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7376550446997855</v>
+        <v>0.739826527690024</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>189952</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>167434</v>
+        <v>169131</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>212330</v>
+        <v>216290</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2016002577656081</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1777011853668738</v>
+        <v>0.1795027675030823</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2253498177667352</v>
+        <v>0.2295529726393798</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>329</v>
@@ -1416,19 +1416,19 @@
         <v>343491</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>315833</v>
+        <v>315264</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>373653</v>
+        <v>373659</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3307209333197652</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3040914673471043</v>
+        <v>0.303543220405126</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3597614071848599</v>
+        <v>0.3597676405404165</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>540</v>
@@ -1437,19 +1437,19 @@
         <v>533443</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>498757</v>
+        <v>495592</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>573175</v>
+        <v>576675</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2693021836878469</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2517915889646884</v>
+        <v>0.250193832496338</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2893603500309995</v>
+        <v>0.2911275119652538</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>752270</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>729892</v>
+        <v>725932</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>774788</v>
+        <v>773091</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7983997422343919</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7746501822332644</v>
+        <v>0.7704470273606193</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.822298814633126</v>
+        <v>0.8204972324969172</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>668</v>
@@ -1487,19 +1487,19 @@
         <v>695121</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>664959</v>
+        <v>664953</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>722779</v>
+        <v>723348</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6692790666802347</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6402385928151401</v>
+        <v>0.6402323594595835</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6959085326528957</v>
+        <v>0.696456779594874</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1451</v>
@@ -1508,19 +1508,19 @@
         <v>1447391</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1407659</v>
+        <v>1404159</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1482077</v>
+        <v>1485242</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7306978163121531</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7106396499690005</v>
+        <v>0.7088724880347463</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7482084110353115</v>
+        <v>0.7498061675036624</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>647983</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>601869</v>
+        <v>602764</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>691471</v>
+        <v>693707</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1977641401705281</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1836902442071196</v>
+        <v>0.183963270024117</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2110368303081016</v>
+        <v>0.211719058118747</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1101</v>
@@ -1633,19 +1633,19 @@
         <v>1132361</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1077281</v>
+        <v>1077316</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1185222</v>
+        <v>1185809</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3350976316574633</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3187980497467797</v>
+        <v>0.3188083237191427</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3507406700124574</v>
+        <v>0.3509144351144274</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1763</v>
@@ -1654,19 +1654,19 @@
         <v>1780344</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1703941</v>
+        <v>1714496</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1853234</v>
+        <v>1853444</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2674899589204349</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2560107588528546</v>
+        <v>0.2575965742536874</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2784414872857595</v>
+        <v>0.2784729992324192</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2628560</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2585072</v>
+        <v>2582836</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2674674</v>
+        <v>2673779</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8022358598294719</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7889631696918983</v>
+        <v>0.788280941881253</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8163097557928803</v>
+        <v>0.8160367299758831</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2196</v>
@@ -1704,19 +1704,19 @@
         <v>2246836</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2193975</v>
+        <v>2193388</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2301916</v>
+        <v>2301881</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6649023683425367</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6492593299875423</v>
+        <v>0.6490855648855722</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6812019502532202</v>
+        <v>0.6811916762808572</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4748</v>
@@ -1725,19 +1725,19 @@
         <v>4875397</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4802507</v>
+        <v>4802297</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4951800</v>
+        <v>4941245</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7325100410795651</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7215585127142404</v>
+        <v>0.7215270007675807</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7439892411471455</v>
+        <v>0.742403425746312</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>181251</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>159333</v>
+        <v>157857</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>205056</v>
+        <v>208188</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2576530413590578</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2264966151981938</v>
+        <v>0.2243979071882059</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2914922811422681</v>
+        <v>0.2959451564520731</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>282</v>
@@ -2090,19 +2090,19 @@
         <v>303918</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>273486</v>
+        <v>276376</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>328851</v>
+        <v>331145</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4360062955973922</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3923472158910141</v>
+        <v>0.3964937253375631</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4717748400930761</v>
+        <v>0.4750665759732282</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>452</v>
@@ -2111,19 +2111,19 @@
         <v>485169</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>449473</v>
+        <v>453157</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>523742</v>
+        <v>526467</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3464209464611238</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3209328486633965</v>
+        <v>0.3235638481236922</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3739626935411711</v>
+        <v>0.3759088308179331</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>522218</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>498413</v>
+        <v>495281</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>544136</v>
+        <v>545612</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7423469586409421</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7085077188577321</v>
+        <v>0.704054843547927</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7735033848018062</v>
+        <v>0.7756020928117942</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>368</v>
@@ -2161,19 +2161,19 @@
         <v>393132</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>368199</v>
+        <v>365905</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>423564</v>
+        <v>420674</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5639937044026079</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.528225159906924</v>
+        <v>0.524933424026772</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6076527841089858</v>
+        <v>0.6035062746624369</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>872</v>
@@ -2182,19 +2182,19 @@
         <v>915350</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>876777</v>
+        <v>874052</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>951046</v>
+        <v>947362</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6535790535388761</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.626037306458829</v>
+        <v>0.624091169182067</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6790671513366036</v>
+        <v>0.6764361518763078</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>243885</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>216182</v>
+        <v>216969</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>271362</v>
+        <v>272655</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2395849080300613</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.212370761747999</v>
+        <v>0.2131435490826529</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2665776119802223</v>
+        <v>0.2678474423089157</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>359</v>
@@ -2307,19 +2307,19 @@
         <v>392591</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>361057</v>
+        <v>360050</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>424106</v>
+        <v>425142</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.380349721228318</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3497987255616961</v>
+        <v>0.3488234116294797</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4108819592673064</v>
+        <v>0.4118856886411636</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>582</v>
@@ -2328,19 +2328,19 @@
         <v>636476</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>596499</v>
+        <v>592328</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>679638</v>
+        <v>679684</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3104560763546387</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2909565628140321</v>
+        <v>0.2889221158188035</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3315097180988671</v>
+        <v>0.3315319094181595</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>774062</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>746585</v>
+        <v>745292</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>801765</v>
+        <v>800978</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7604150919699387</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7334223880197777</v>
+        <v>0.7321525576910841</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.787629238252001</v>
+        <v>0.786856450917347</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>581</v>
@@ -2378,19 +2378,19 @@
         <v>639593</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>608078</v>
+        <v>607042</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>671127</v>
+        <v>672134</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.619650278771682</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5891180407326937</v>
+        <v>0.5881143113588357</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6502012744383039</v>
+        <v>0.6511765883705203</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1294</v>
@@ -2399,19 +2399,19 @@
         <v>1413655</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1370493</v>
+        <v>1370447</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1453632</v>
+        <v>1457803</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6895439236453613</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6684902819011328</v>
+        <v>0.6684680905818405</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7090434371859677</v>
+        <v>0.7110778841811966</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>163289</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>139973</v>
+        <v>140233</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>192140</v>
+        <v>187632</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2155278568976724</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1847526460218173</v>
+        <v>0.1850954465284024</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2536085940012904</v>
+        <v>0.2476589753156238</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>245</v>
@@ -2524,19 +2524,19 @@
         <v>267639</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>240812</v>
+        <v>241198</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>297418</v>
+        <v>295743</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3443743103938789</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3098556031394749</v>
+        <v>0.310352214986342</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3826916223655085</v>
+        <v>0.3805364182360361</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>388</v>
@@ -2545,19 +2545,19 @@
         <v>430928</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>395475</v>
+        <v>397416</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>469743</v>
+        <v>469640</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2807717253318737</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2576728212363572</v>
+        <v>0.2589371828861034</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3060621631740556</v>
+        <v>0.3059948683699264</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>594334</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>565483</v>
+        <v>569991</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>617650</v>
+        <v>617390</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7844721431023276</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7463914059987092</v>
+        <v>0.7523410246843762</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8152473539781825</v>
+        <v>0.8149045534715975</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>460</v>
@@ -2595,19 +2595,19 @@
         <v>509535</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>479756</v>
+        <v>481431</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>536362</v>
+        <v>535976</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6556256896061211</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6173083776344914</v>
+        <v>0.6194635817639637</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.690144396860525</v>
+        <v>0.6896477850136578</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1006</v>
@@ -2616,19 +2616,19 @@
         <v>1103869</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1065054</v>
+        <v>1065157</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1139322</v>
+        <v>1137381</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7192282746681263</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6939378368259446</v>
+        <v>0.6940051316300735</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7423271787636428</v>
+        <v>0.7410628171138968</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>244429</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>215840</v>
+        <v>218939</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>270573</v>
+        <v>272843</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2579073518266275</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2277417195508199</v>
+        <v>0.2310123637663505</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2854933966212633</v>
+        <v>0.2878880501042529</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>393</v>
@@ -2741,19 +2741,19 @@
         <v>412429</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>378402</v>
+        <v>383063</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>447725</v>
+        <v>449294</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3920797786953663</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3597317001182177</v>
+        <v>0.364162442608286</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4256337675497346</v>
+        <v>0.4271257157419674</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>618</v>
@@ -2762,19 +2762,19 @@
         <v>656858</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>617084</v>
+        <v>614794</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>700409</v>
+        <v>701753</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3284880984952625</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3085974149848391</v>
+        <v>0.3074521574777406</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3502677063373589</v>
+        <v>0.3509398889348522</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>703310</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>677166</v>
+        <v>674896</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>731899</v>
+        <v>728800</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7420926481733725</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7145066033787368</v>
+        <v>0.7121119498957474</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7722582804491803</v>
+        <v>0.7689876362336497</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>610</v>
@@ -2812,19 +2812,19 @@
         <v>639472</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>604176</v>
+        <v>602607</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>673499</v>
+        <v>668838</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6079202213046337</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5743662324502654</v>
+        <v>0.5728742842580326</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6402682998817826</v>
+        <v>0.6358375573917138</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1295</v>
@@ -2833,19 +2833,19 @@
         <v>1342782</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1299231</v>
+        <v>1297887</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1382556</v>
+        <v>1384846</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6715119015047375</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6497322936626412</v>
+        <v>0.6490601110651478</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6914025850151608</v>
+        <v>0.6925478425222594</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>832854</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>783333</v>
+        <v>780445</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>888767</v>
+        <v>888562</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2430427006172313</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2285916501713468</v>
+        <v>0.2277489814157754</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2593592738880337</v>
+        <v>0.2592995930426619</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1279</v>
@@ -2958,19 +2958,19 @@
         <v>1376577</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1313500</v>
+        <v>1318449</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1434060</v>
+        <v>1436130</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.386862680234676</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3691360209666502</v>
+        <v>0.3705269174170019</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4030172168320776</v>
+        <v>0.4035991487437324</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2040</v>
@@ -2979,19 +2979,19 @@
         <v>2209431</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2126039</v>
+        <v>2126748</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2288505</v>
+        <v>2285837</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3163067660577515</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3043682720939518</v>
+        <v>0.3044697620063027</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3276272681179413</v>
+        <v>0.3272453369934935</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2593925</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2538012</v>
+        <v>2538217</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2643446</v>
+        <v>2646334</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7569572993827687</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7406407261119662</v>
+        <v>0.740700406957338</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7714083498286523</v>
+        <v>0.7722510185842242</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2019</v>
@@ -3029,19 +3029,19 @@
         <v>2181732</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2124249</v>
+        <v>2122179</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2244809</v>
+        <v>2239860</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.613137319765324</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5969827831679224</v>
+        <v>0.5964008512562676</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6308639790333498</v>
+        <v>0.6294730825829981</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4467</v>
@@ -3050,19 +3050,19 @@
         <v>4775657</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4696583</v>
+        <v>4699251</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4859049</v>
+        <v>4858340</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6836932339422485</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6723727318820589</v>
+        <v>0.6727546630065062</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6956317279060483</v>
+        <v>0.6955302379936972</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>156110</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>134879</v>
+        <v>135387</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>180158</v>
+        <v>178270</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2313424655259683</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1998801169407231</v>
+        <v>0.2006322833360804</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2669802559131827</v>
+        <v>0.2641814398486267</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>240</v>
@@ -3415,19 +3415,19 @@
         <v>256658</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>231342</v>
+        <v>234534</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>282060</v>
+        <v>286765</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3814546478073933</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3438290322043903</v>
+        <v>0.3485735499372613</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4192090350852445</v>
+        <v>0.4262017766033722</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>396</v>
@@ -3436,19 +3436,19 @@
         <v>412767</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>377427</v>
+        <v>378464</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>445124</v>
+        <v>448485</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3062893396277155</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2800656462745119</v>
+        <v>0.2808349093267981</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3302989891566474</v>
+        <v>0.3327929118576656</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>518690</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>494642</v>
+        <v>496530</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>539921</v>
+        <v>539413</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7686575344740316</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.733019744086817</v>
+        <v>0.7358185601513731</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8001198830592767</v>
+        <v>0.7993677166639196</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>426</v>
@@ -3486,19 +3486,19 @@
         <v>416181</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>390779</v>
+        <v>386074</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>441497</v>
+        <v>438305</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6185453521926068</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5807909649147553</v>
+        <v>0.5737982233966278</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6561709677956097</v>
+        <v>0.6514264500627387</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>922</v>
@@ -3507,19 +3507,19 @@
         <v>934872</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>902515</v>
+        <v>899154</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>970212</v>
+        <v>969175</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6937106603722846</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6697010108433527</v>
+        <v>0.6672070881423344</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7199343537254881</v>
+        <v>0.7191650906732017</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>237193</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>212236</v>
+        <v>210476</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>265279</v>
+        <v>263976</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2319888423652353</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2075800381818589</v>
+        <v>0.2058582911748366</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2594586803465691</v>
+        <v>0.2581847959285691</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>344</v>
@@ -3632,19 +3632,19 @@
         <v>389674</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>355979</v>
+        <v>361430</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>422000</v>
+        <v>423540</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3736402775134092</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3413311930576489</v>
+        <v>0.3465582696166394</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4046354294465217</v>
+        <v>0.4061125391401181</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>574</v>
@@ -3653,19 +3653,19 @@
         <v>626867</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>585887</v>
+        <v>587406</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>670625</v>
+        <v>671344</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3035169383675956</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2836750982618118</v>
+        <v>0.2844105607863012</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3247036705644433</v>
+        <v>0.3250519007658536</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>785238</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>757152</v>
+        <v>758455</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>810195</v>
+        <v>811955</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7680111576347647</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7405413196534308</v>
+        <v>0.7418152040714308</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.792419961818141</v>
+        <v>0.7941417088251632</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>633</v>
@@ -3703,19 +3703,19 @@
         <v>653239</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>620913</v>
+        <v>619373</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>686934</v>
+        <v>681483</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6263597224865908</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5953645705534784</v>
+        <v>0.5938874608598819</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6586688069423511</v>
+        <v>0.6534417303833606</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1354</v>
@@ -3724,19 +3724,19 @@
         <v>1438477</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1394719</v>
+        <v>1394000</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1479457</v>
+        <v>1477938</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6964830616324044</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6752963294355571</v>
+        <v>0.6749480992341466</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7163249017381883</v>
+        <v>0.7155894392136989</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>167445</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>145434</v>
+        <v>143571</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>193664</v>
+        <v>190178</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2204519883708365</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.191473087237466</v>
+        <v>0.1890202464879358</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2549712979812742</v>
+        <v>0.2503817943900274</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>217</v>
@@ -3849,19 +3849,19 @@
         <v>244499</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>220177</v>
+        <v>216259</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>275013</v>
+        <v>269831</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3114592911916019</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2804767295144972</v>
+        <v>0.2754855271228319</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3503303113160076</v>
+        <v>0.3437288413764937</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>377</v>
@@ -3870,19 +3870,19 @@
         <v>411944</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>378734</v>
+        <v>376612</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>447855</v>
+        <v>447340</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2667056646099791</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2452045518473159</v>
+        <v>0.243831007293897</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2899557960979653</v>
+        <v>0.2896221290560568</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>592107</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>565888</v>
+        <v>569374</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>614118</v>
+        <v>615981</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7795480116291635</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7450287020187258</v>
+        <v>0.7496182056099724</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8085269127625341</v>
+        <v>0.8109797535120641</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>519</v>
@@ -3920,19 +3920,19 @@
         <v>540512</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>509998</v>
+        <v>515180</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>564834</v>
+        <v>568752</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6885407088083981</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6496696886839927</v>
+        <v>0.6562711586235064</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7195232704855028</v>
+        <v>0.7245144728771682</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1055</v>
@@ -3941,19 +3941,19 @@
         <v>1132619</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1096708</v>
+        <v>1097223</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1165829</v>
+        <v>1167951</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7332943353900209</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7100442039020346</v>
+        <v>0.7103778709439433</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.754795448152684</v>
+        <v>0.756168992706103</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>248861</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>222183</v>
+        <v>221964</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>275084</v>
+        <v>277652</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2654327693462923</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2369781541837773</v>
+        <v>0.236744167249586</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2934018322204828</v>
+        <v>0.2961407471080348</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>336</v>
@@ -4066,19 +4066,19 @@
         <v>388951</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>358218</v>
+        <v>358102</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>421844</v>
+        <v>421827</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3726369034657883</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3431934697229255</v>
+        <v>0.3430825006821498</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4041505443546443</v>
+        <v>0.4041341115289977</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>587</v>
@@ -4087,19 +4087,19 @@
         <v>637812</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>596020</v>
+        <v>596451</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>681973</v>
+        <v>682084</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3219082282511502</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3008158428248178</v>
+        <v>0.3010330569705074</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3441965736187772</v>
+        <v>0.3442526868822445</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>688706</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>662483</v>
+        <v>659915</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>715384</v>
+        <v>715603</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7345672306537077</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7065981677795172</v>
+        <v>0.703859252891965</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7630218458162228</v>
+        <v>0.7632558327504135</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>623</v>
@@ -4137,19 +4137,19 @@
         <v>654828</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>621935</v>
+        <v>621952</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>685561</v>
+        <v>685677</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6273630965342117</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5958494556453557</v>
+        <v>0.5958658884710022</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6568065302770745</v>
+        <v>0.6569174993178502</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1304</v>
@@ -4158,19 +4158,19 @@
         <v>1343534</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1299373</v>
+        <v>1299262</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1385326</v>
+        <v>1384895</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6780917717488498</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6558034263812228</v>
+        <v>0.6557473131177554</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6991841571751822</v>
+        <v>0.6989669430294926</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>809608</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>760352</v>
+        <v>764074</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>862252</v>
+        <v>860076</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2385164248893366</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.224005101273313</v>
+        <v>0.2251017382393446</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2540258005607766</v>
+        <v>0.2533845174307455</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1137</v>
@@ -4283,19 +4283,19 @@
         <v>1279781</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1220451</v>
+        <v>1212863</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1339290</v>
+        <v>1335748</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3610569180493427</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3443184172949922</v>
+        <v>0.3421775869072018</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3778455722336492</v>
+        <v>0.3768463126128068</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1934</v>
@@ -4304,19 +4304,19 @@
         <v>2089390</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2001594</v>
+        <v>2013744</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2166661</v>
+        <v>2163601</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3011128600502788</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2884601761554669</v>
+        <v>0.2902112413715754</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3122488336970831</v>
+        <v>0.31180790888157</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2584742</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2532098</v>
+        <v>2534274</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2633998</v>
+        <v>2630276</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7614835751106634</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7459741994392232</v>
+        <v>0.7466154825692544</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7759948987266869</v>
+        <v>0.7748982617606555</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2201</v>
@@ -4354,19 +4354,19 @@
         <v>2264761</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2205252</v>
+        <v>2208794</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2324091</v>
+        <v>2331679</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6389430819506573</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6221544277663508</v>
+        <v>0.6231536873871932</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6556815827050075</v>
+        <v>0.6578224130927982</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4635</v>
@@ -4375,19 +4375,19 @@
         <v>4849502</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4772231</v>
+        <v>4775291</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4937298</v>
+        <v>4925148</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6988871399497212</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6877511663029169</v>
+        <v>0.6881920911184298</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.711539823844533</v>
+        <v>0.7097887586284245</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>252485</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>228043</v>
+        <v>228187</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>281916</v>
+        <v>280052</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3655444725748727</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3301567483132297</v>
+        <v>0.3303655243379492</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4081540840801657</v>
+        <v>0.405455589479553</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>674</v>
@@ -4740,19 +4740,19 @@
         <v>349514</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>328685</v>
+        <v>326085</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>371885</v>
+        <v>371143</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.476060266718846</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4476899240679689</v>
+        <v>0.4441491173258617</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5065314322648623</v>
+        <v>0.5055211044349781</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>997</v>
@@ -4761,19 +4761,19 @@
         <v>601999</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>566101</v>
+        <v>567083</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>634930</v>
+        <v>639100</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4224881667696941</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3972948441368856</v>
+        <v>0.397984254425357</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4455992725525385</v>
+        <v>0.4485261170773489</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>438225</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>408794</v>
+        <v>410658</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>462667</v>
+        <v>462523</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6344555274251273</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5918459159198345</v>
+        <v>0.5945444105204468</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6698432516867703</v>
+        <v>0.6696344756620504</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>567</v>
@@ -4811,19 +4811,19 @@
         <v>384666</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>362295</v>
+        <v>363037</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>405495</v>
+        <v>408095</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.5239397332811538</v>
+        <v>0.5239397332811537</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4934685677351376</v>
+        <v>0.4944788955650218</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.552310075932031</v>
+        <v>0.5558508826741385</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>974</v>
@@ -4832,19 +4832,19 @@
         <v>822890</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>789959</v>
+        <v>785789</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>858788</v>
+        <v>857806</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.577511833230306</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5544007274474614</v>
+        <v>0.5514738829226511</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6027051558631144</v>
+        <v>0.602015745574643</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>297975</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>267625</v>
+        <v>269558</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>327900</v>
+        <v>331456</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2840782990621541</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2551437135548992</v>
+        <v>0.2569872396509275</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3126079482570873</v>
+        <v>0.3159986592532672</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>771</v>
@@ -4957,19 +4957,19 @@
         <v>481659</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>452177</v>
+        <v>452057</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>509674</v>
+        <v>511249</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4495296181679636</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4220141613200749</v>
+        <v>0.4219018449182793</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4756754941598422</v>
+        <v>0.4771450423592629</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1113</v>
@@ -4978,19 +4978,19 @@
         <v>779634</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>734730</v>
+        <v>737548</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>822179</v>
+        <v>825273</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3676840110961532</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.346507071055961</v>
+        <v>0.3478356154956242</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3877487793016062</v>
+        <v>0.3892078368761476</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>750942</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>721017</v>
+        <v>717461</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>781292</v>
+        <v>779359</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7159217009378459</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6873920517429128</v>
+        <v>0.6840013407467329</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7448562864451008</v>
+        <v>0.7430127603490727</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>746</v>
@@ -5028,19 +5028,19 @@
         <v>589815</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>561800</v>
+        <v>560225</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>619297</v>
+        <v>619417</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5504703818320363</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5243245058401577</v>
+        <v>0.5228549576407371</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.577985838679925</v>
+        <v>0.5780981550817206</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1368</v>
@@ -5049,19 +5049,19 @@
         <v>1340757</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1298212</v>
+        <v>1295118</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1385661</v>
+        <v>1382843</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6323159889038468</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6122512206983934</v>
+        <v>0.6107921631238523</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.653492928944039</v>
+        <v>0.652164384504376</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>259958</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>229180</v>
+        <v>228980</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>290511</v>
+        <v>288353</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3237046567529971</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2853782885299305</v>
+        <v>0.2851303423048379</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3617494745969393</v>
+        <v>0.3590623956301871</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>518</v>
@@ -5174,19 +5174,19 @@
         <v>372126</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>347185</v>
+        <v>345011</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>399696</v>
+        <v>399283</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4581366295530214</v>
+        <v>0.4581366295530213</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4274319428809092</v>
+        <v>0.4247543254265337</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4920795676668943</v>
+        <v>0.491571508073663</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>775</v>
@@ -5195,19 +5195,19 @@
         <v>632084</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>596282</v>
+        <v>593130</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>670969</v>
+        <v>669796</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3913028713844064</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3691387721998808</v>
+        <v>0.3671873668306755</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.415375199464364</v>
+        <v>0.414649059625826</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>543115</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>512562</v>
+        <v>514720</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>573893</v>
+        <v>574093</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6762953432470029</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6382505254030607</v>
+        <v>0.6409376043698131</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7146217114700694</v>
+        <v>0.7148696576951621</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>529</v>
@@ -5245,19 +5245,19 @@
         <v>440133</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>412563</v>
+        <v>412976</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>465074</v>
+        <v>467248</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5418633704469787</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5079204323331058</v>
+        <v>0.508428491926337</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5725680571190908</v>
+        <v>0.5752456745734662</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>948</v>
@@ -5266,19 +5266,19 @@
         <v>983248</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>944363</v>
+        <v>945536</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1019050</v>
+        <v>1022202</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6086971286155937</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5846248005356359</v>
+        <v>0.5853509403741739</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6308612278001189</v>
+        <v>0.6328126331693241</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>330401</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>299411</v>
+        <v>298997</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>360977</v>
+        <v>358904</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.3337176419210335</v>
+        <v>0.3337176419210336</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3024167367274839</v>
+        <v>0.3019985012038998</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.364600878710648</v>
+        <v>0.3625063830774955</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>811</v>
@@ -5391,19 +5391,19 @@
         <v>520843</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>492053</v>
+        <v>491357</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>548972</v>
+        <v>549956</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4654372917226944</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4397094047980962</v>
+        <v>0.4390880223371006</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4905739195100969</v>
+        <v>0.4914530168213487</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1213</v>
@@ -5412,19 +5412,19 @@
         <v>851245</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>810822</v>
+        <v>804937</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>890341</v>
+        <v>891237</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.403605028478699</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3844391903099454</v>
+        <v>0.3816486879213462</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4221417937326244</v>
+        <v>0.4225664951179857</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>659661</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>629085</v>
+        <v>631158</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>690651</v>
+        <v>691065</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6662823580789664</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6353991212893522</v>
+        <v>0.6374936169225045</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6975832632725163</v>
+        <v>0.6980014987961003</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>751</v>
@@ -5462,19 +5462,19 @@
         <v>598198</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>570069</v>
+        <v>569085</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>626988</v>
+        <v>627684</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.5345627082773058</v>
+        <v>0.5345627082773057</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5094260804899026</v>
+        <v>0.5085469831786511</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5602905952019038</v>
+        <v>0.5609119776628994</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1355</v>
@@ -5483,19 +5483,19 @@
         <v>1257859</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1218763</v>
+        <v>1217867</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1298282</v>
+        <v>1304167</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5963949715213009</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5778582062673755</v>
+        <v>0.5774335048820142</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6155608096900543</v>
+        <v>0.6183513120786537</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>1140819</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1086166</v>
+        <v>1080143</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1200748</v>
+        <v>1196797</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3229256272451861</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3074551715711908</v>
+        <v>0.3057504173086999</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3398893028249449</v>
+        <v>0.3387709262693741</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2774</v>
@@ -5608,19 +5608,19 @@
         <v>1724142</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1669498</v>
+        <v>1672112</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1776102</v>
+        <v>1777660</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4613763600743805</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4467535595557532</v>
+        <v>0.4474530844938493</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4752806776127179</v>
+        <v>0.4756974563710953</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4098</v>
@@ -5629,19 +5629,19 @@
         <v>2864962</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2776217</v>
+        <v>2775205</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2942113</v>
+        <v>2938234</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3940954002529922</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3818879201369373</v>
+        <v>0.3817487654082554</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4047081461397947</v>
+        <v>0.4041744898064048</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2391943</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2332014</v>
+        <v>2335965</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2446596</v>
+        <v>2452619</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6770743727548139</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6601106971750552</v>
+        <v>0.6612290737306259</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.692544828428809</v>
+        <v>0.6942495826913002</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2593</v>
@@ -5679,19 +5679,19 @@
         <v>2012812</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1960852</v>
+        <v>1959294</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2067456</v>
+        <v>2064842</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5386236399256196</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5247193223872821</v>
+        <v>0.5243025436289048</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5532464404442468</v>
+        <v>0.5525469155061506</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4645</v>
@@ -5700,19 +5700,19 @@
         <v>4404754</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4327603</v>
+        <v>4331482</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4493499</v>
+        <v>4494511</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6059045997470078</v>
+        <v>0.6059045997470077</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5952918538602054</v>
+        <v>0.5958255101935952</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6181120798630629</v>
+        <v>0.6182512345917447</v>
       </c>
     </row>
     <row r="18">
